--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="UPC Codes" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t xml:space="preserve">UPC codes</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">From bond manufacturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIN</t>
   </si>
   <si>
     <t xml:space="preserve">B016HF43KE</t>
@@ -440,12 +437,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -824,11 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -847,8 +840,8 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -857,99 +850,99 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +964,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -983,7 +976,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -991,10 +984,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,15 +995,15 @@
         <v>9780761168850</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,7 +1011,7 @@
         <v>9780316083270</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,7 +1019,7 @@
         <v>316083275</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,15 +1027,15 @@
         <v>1607748916</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,15 +1043,15 @@
         <v>307461300</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,31 +1059,31 @@
         <v>9780307461308</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,15 +1091,15 @@
         <v>988781859</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,7 +1107,7 @@
         <v>316610003</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t xml:space="preserve">UPC codes</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From bond manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some UPC codes have 11 digits and require a leading zero to be found on amazon</t>
   </si>
   <si>
     <t xml:space="preserve">Andromeda</t>
@@ -84,9 +90,6 @@
     <t xml:space="preserve">This listing will only be found if there is a leading 0 added</t>
   </si>
   <si>
-    <t xml:space="preserve">Some UPC codes have 11 digits and require a leading zero to be found on amazon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meren Of Clan Nel Toth Play Mat For Magic Commander 2015 Ultra Pro</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dungeons And Dragons: Nolzur's Marvelous Unpainted Miniatures - Dragonborn Male Fighter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From bond manufacturing</t>
   </si>
   <si>
     <t xml:space="preserve">B016HF43KE</t>
@@ -437,24 +437,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,361 +467,371 @@
       <c r="C1" s="0"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
+        <v>34613970306</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>5902259201861</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>762486030161</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>689070015574</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
+      <c r="A6" s="5" t="n">
+        <v>689070015574</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>8054181512731</v>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C7" s="0"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
+        <v>8054181512731</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>8054181513363</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>689070015574</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="0"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>729220070227</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
+        <v>729220070227</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>634482731970</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>609456647823</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>8054181513400</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>8054181513400</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>74427864255</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>74427863234</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="0"/>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
-        <v>74427857097</v>
+        <v>74427863234</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>634482731987</v>
+        <v>74427857097</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
+        <v>634482731987</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>34613941184</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>34613941696</v>
-      </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>34613951220</v>
+        <v>34613941696</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>34613953019</v>
+        <v>34613951220</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>34613953231</v>
+        <v>34613953019</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
-        <v>34613955648</v>
+        <v>34613953231</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
-        <v>34613955709</v>
+        <v>34613955648</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
-        <v>34613965913</v>
+        <v>34613955709</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>34613965982</v>
+        <v>34613965913</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>35355970166</v>
+        <v>34613965982</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
-        <v>34613970306</v>
+        <v>35355970166</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
-        <v>35355983920</v>
+        <v>34613970306</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
-        <v>34613988813</v>
+        <v>35355983920</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
-        <v>34613989056</v>
+        <v>34613988813</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
-        <v>34613989087</v>
+        <v>34613989056</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
+        <v>34613989087</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
         <v>34613953378</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -841,13 +851,13 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,14 +974,14 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
